--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2173.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2173.xlsx
@@ -354,7 +354,7 @@
         <v>2.390298226831698</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.585552478089024</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2173.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2173.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.27440385651374</v>
+        <v>1.217414975166321</v>
       </c>
       <c r="B1">
-        <v>2.390298226831698</v>
+        <v>2.228760957717896</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.585552478089024</v>
+        <v>1.433882236480713</v>
       </c>
       <c r="E1">
-        <v>0.6996453590070307</v>
+        <v>0.8967984914779663</v>
       </c>
     </row>
   </sheetData>
